--- a/data/trans_camb/P1416-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1416-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.7832612672182813</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.762499846042652</v>
+        <v>3.762499846042654</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-1.985358179752807</v>
@@ -655,7 +655,7 @@
         <v>-2.787676983927054</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.596002665207565</v>
+        <v>3.596002665207566</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.461240826344496</v>
@@ -664,7 +664,7 @@
         <v>-1.779619579832679</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.730352066400669</v>
+        <v>3.73035206640067</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.181527985149359</v>
+        <v>-3.157185581688213</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.936811544834943</v>
+        <v>-3.063762943758613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.106554007796654</v>
+        <v>1.077476001912005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.553212669628951</v>
+        <v>-4.791437813678626</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.796222994278586</v>
+        <v>-5.378728878574709</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7704408992075805</v>
+        <v>0.7156846646496364</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.295308295359728</v>
+        <v>-3.368031187561909</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.415703134949124</v>
+        <v>-3.684699046925437</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.620351546395247</v>
+        <v>1.564467396228238</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.380029639422424</v>
+        <v>1.339702357173327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.424186243448392</v>
+        <v>1.461106050217701</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.857907593541078</v>
+        <v>6.819064353965311</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8972472119577378</v>
+        <v>0.991107099815562</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.2986016249879642</v>
+        <v>0.063084220309362</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.437142573317657</v>
+        <v>6.396227594900241</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4584857607695799</v>
+        <v>0.3962152983605152</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.05001654096148801</v>
+        <v>-0.1378515738527238</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.685802380151642</v>
+        <v>5.74848933672867</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1524381729150368</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7322570719739309</v>
+        <v>0.7322570719739311</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2345437113126914</v>
@@ -760,7 +760,7 @@
         <v>-0.3293270264374303</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.424819974344944</v>
+        <v>0.4248199743449441</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2150564808546318</v>
@@ -769,7 +769,7 @@
         <v>-0.2619135170594982</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5490103843839631</v>
+        <v>0.5490103843839632</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5085375936726654</v>
+        <v>-0.497119632251932</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4714320895580535</v>
+        <v>-0.5002464127324376</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1717270444372364</v>
+        <v>0.1620518474260065</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4591928976308184</v>
+        <v>-0.4824180508647009</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5673113707388888</v>
+        <v>-0.5479684285201651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07730486439488622</v>
+        <v>0.06804936257474768</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4279641289693228</v>
+        <v>-0.4347721951587495</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4471369534412384</v>
+        <v>-0.4631798670356246</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2048230858562907</v>
+        <v>0.203045428964031</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3915477332524354</v>
+        <v>0.3419857805820196</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3915005325157765</v>
+        <v>0.3782770975854052</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.758978414207483</v>
+        <v>1.755879965923711</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1373979819435997</v>
+        <v>0.1575592987490203</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.02971318560150514</v>
+        <v>0.01963366160825839</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9687471383734152</v>
+        <v>0.9400832765198985</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08023954055250966</v>
+        <v>0.0672740273418258</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.013029559375851</v>
+        <v>-0.0206669678513832</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9556564948434485</v>
+        <v>0.9841778174096035</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.189996056279909</v>
+        <v>-4.077385601520061</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.38457834480061</v>
+        <v>-5.049494046883301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8716150889054932</v>
+        <v>-0.7534873795998414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.634714957135003</v>
+        <v>-4.686839930757954</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.01512238216969</v>
+        <v>-3.233528945977475</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.055078999157382</v>
+        <v>-1.807034711441392</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.691849325584871</v>
+        <v>-3.583962398082689</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.476778496416857</v>
+        <v>-3.455622933437271</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.5859916252745</v>
+        <v>-0.6156032876733968</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4778791293133844</v>
+        <v>0.7877265098496539</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.7615447567758888</v>
+        <v>-0.9245280248028163</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.981160584109457</v>
+        <v>4.854421590378517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.66474231772712</v>
+        <v>0.6553567186648044</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.235445047224212</v>
+        <v>2.12664547566877</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.154906645057186</v>
+        <v>3.399376416725671</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.1979482215644993</v>
+        <v>-0.03307005379004845</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.001221806912713531</v>
+        <v>0.1361714685438636</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.211237027911205</v>
+        <v>3.044817011027386</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4662079966772153</v>
+        <v>-0.4593108295167189</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.602849432590139</v>
+        <v>-0.5760555346419476</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1109629453065889</v>
+        <v>-0.0913661052989658</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4049304697212734</v>
+        <v>-0.4153769599904048</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2676516886252512</v>
+        <v>-0.2764671543567511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1837849773733182</v>
+        <v>-0.1589408283219955</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3891091825323813</v>
+        <v>-0.378265936134094</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3564981561753002</v>
+        <v>-0.3607869129816315</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.06089238246428035</v>
+        <v>-0.06010145010284514</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.08330772776407834</v>
+        <v>0.1389922644658184</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.09578278265756228</v>
+        <v>-0.1215107830766261</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7577901168230915</v>
+        <v>0.7986685650563833</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.07850180331747336</v>
+        <v>0.08605890380784127</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2707462624746887</v>
+        <v>0.2692058279400813</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3868837709299784</v>
+        <v>0.4211355434953659</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.02283305566196815</v>
+        <v>-0.002695353327119746</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.001860683612353165</v>
+        <v>0.0184622183582871</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.412197334530312</v>
+        <v>0.4026071399766992</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.515657645551689</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.771938783341011</v>
+        <v>5.77193878334101</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.38896372323346</v>
@@ -1092,7 +1092,7 @@
         <v>-1.589635437354071</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.131361008200164</v>
+        <v>5.131361008200161</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.340527912899398</v>
+        <v>-3.184130008199578</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.670842808982336</v>
+        <v>-4.86906106175094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.489173338016286</v>
+        <v>2.236677623144539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.349095750696897</v>
+        <v>-5.223741025699591</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.803337136321362</v>
+        <v>-3.830659151549668</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.605349251911033</v>
+        <v>1.349054340609946</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.495664059488765</v>
+        <v>-3.439164971128101</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.46619607378071</v>
+        <v>-3.361669160719956</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.971313957807065</v>
+        <v>2.996501696636753</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.900051807193011</v>
+        <v>2.075092563716757</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2095101687764176</v>
+        <v>-0.2849083270237922</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.309210949289463</v>
+        <v>9.052658608595541</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2642494462168724</v>
+        <v>0.401277040425321</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.196808312742654</v>
+        <v>2.119764712835136</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.824023102019662</v>
+        <v>7.48894565405666</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2778930746654327</v>
+        <v>0.2969602264811335</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.252602492163105</v>
+        <v>0.3626190359746012</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.290681229214653</v>
+        <v>7.271963781048201</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4174797544699964</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.9578678523073081</v>
+        <v>0.9578678523073079</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2700949248011594</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2136354469181941</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6896176170494261</v>
+        <v>0.6896176170494258</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4527322300867347</v>
+        <v>-0.4274685152207575</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6540798564104231</v>
+        <v>-0.6646844404843881</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3332316705436746</v>
+        <v>0.2681654668751954</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5039350214286796</v>
+        <v>-0.5082030600502164</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3589316723385405</v>
+        <v>-0.3675461052357388</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1436669243343262</v>
+        <v>0.1310367777281135</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4171316065193185</v>
+        <v>-0.4087225259270958</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4060867041895823</v>
+        <v>-0.391750219526139</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3442429201163144</v>
+        <v>0.3566298722384718</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4021736855621645</v>
+        <v>0.4467826398784172</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.01713003788386145</v>
+        <v>-0.02872136419492326</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.994749343165365</v>
+        <v>1.840102562829619</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.04136783300111482</v>
+        <v>0.05504375630548514</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2835227574760522</v>
+        <v>0.2930777833761892</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.077409681611998</v>
+        <v>1.017428105981328</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04255990321866435</v>
+        <v>0.04712670939988669</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.05119344324549318</v>
+        <v>0.06208299284599703</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.14270603393353</v>
+        <v>1.116289802262328</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.537641144503348</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.338311230978481</v>
+        <v>1.338311230978483</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-2.568254916920379</v>
@@ -1306,7 +1306,7 @@
         <v>-1.679055539519722</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.557288945108312</v>
+        <v>1.557288945108314</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.682596253049693</v>
+        <v>-4.6929485316766</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.81744910859473</v>
+        <v>-2.90702344368136</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.162053796524782</v>
+        <v>-1.279986922329001</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.363810537948948</v>
+        <v>-5.245337894722062</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.257072739113537</v>
+        <v>-5.354388955167011</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.9748572203027414</v>
+        <v>-1.141115416160872</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.332720706752207</v>
+        <v>-4.368597986128251</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.511648863000841</v>
+        <v>-3.51938763888047</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.2686285859709709</v>
+        <v>-0.296925739267602</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.2309687603637274</v>
+        <v>-0.1999835013014668</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.086006593215935</v>
+        <v>1.745045353226437</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.825635032558557</v>
+        <v>3.969440088633542</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.1728581919022291</v>
+        <v>0.01052487776721561</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.05941421827063612</v>
+        <v>0.06511451493850721</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.329028606202886</v>
+        <v>4.374942710652836</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.9797186870766867</v>
+        <v>-0.8889629288196134</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08121087567739178</v>
+        <v>0.06899965557371031</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.25669593097052</v>
+        <v>3.494591524654759</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.07163906789179847</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1783259523877953</v>
+        <v>0.1783259523877955</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2418114222661771</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1837303401385346</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1704060531914103</v>
+        <v>0.1704060531914105</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5380720275966504</v>
+        <v>-0.5310617847650994</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3323812008374037</v>
+        <v>-0.3396392759345124</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1305938276047922</v>
+        <v>-0.1532058632492729</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4318168892136851</v>
+        <v>-0.4292311276928035</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4438778768074728</v>
+        <v>-0.445238320352274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08399961141124861</v>
+        <v>-0.08949900668205821</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4251896173088791</v>
+        <v>-0.4232164008816249</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3371160518512822</v>
+        <v>-0.3486529858955436</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.02615279979137305</v>
+        <v>-0.02982087241518269</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.04080184177901452</v>
+        <v>-0.03488470923145572</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3283084045899757</v>
+        <v>0.2959274170877386</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.613018920591226</v>
+        <v>0.6541750451216858</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.01488080709790774</v>
+        <v>0.001941115869401213</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.002069254225996396</v>
+        <v>0.01193328372742865</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4948518989458034</v>
+        <v>0.4769118791100465</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1126272371895419</v>
+        <v>-0.1025664245049922</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0104289854441661</v>
+        <v>0.01374044171576777</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3906193329249807</v>
+        <v>0.4343512829613874</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.758633924335239</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.030762480443475</v>
+        <v>3.030762480443473</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-2.274120929102804</v>
@@ -1511,7 +1511,7 @@
         <v>-1.645162963554334</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.386260800093995</v>
+        <v>2.386260800093991</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.919632636440706</v>
@@ -1520,7 +1520,7 @@
         <v>-1.6916598938055</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.715798489657269</v>
+        <v>2.715798489657267</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.742654791751413</v>
+        <v>-2.701969501089676</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.850660490402253</v>
+        <v>-2.932428009410303</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.571420423969398</v>
+        <v>1.740068933093143</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.640080861172969</v>
+        <v>-3.616734032475835</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.008096153058564</v>
+        <v>-3.002683444969905</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9848923484147154</v>
+        <v>1.005579806798209</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.786803775120801</v>
+        <v>-2.77170035685582</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.587902758608513</v>
+        <v>-2.57319303886169</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.730316879712269</v>
+        <v>1.736680115114118</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.3170386205626524</v>
+        <v>-0.3957492301499759</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.5290636918205479</v>
+        <v>-0.6511806065586008</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.425436146382986</v>
+        <v>4.677253860416021</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.8917018315597458</v>
+        <v>-0.9184045739598613</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.3185022787056321</v>
+        <v>-0.2684284057437518</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.738264564974526</v>
+        <v>3.753074170517726</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.034826361486405</v>
+        <v>-0.9594064180996746</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.7228164987917366</v>
+        <v>-0.8345468394871878</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.740633295777942</v>
+        <v>3.753958246306578</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2627811187752506</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4528669351434456</v>
+        <v>0.4528669351434454</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.2371605486743805</v>
@@ -1616,7 +1616,7 @@
         <v>-0.171568603103814</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.248855244850031</v>
+        <v>0.2488552448500305</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2351624004985256</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2072348604116213</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.33269578771188</v>
+        <v>0.3326957877118798</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.381836420064512</v>
+        <v>-0.3730826199264855</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3973912930217133</v>
+        <v>-0.4013493352584885</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2339930835154063</v>
+        <v>0.2337912089254264</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3538510597678018</v>
+        <v>-0.350333248164317</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2911274016321798</v>
+        <v>-0.2907018917968472</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0929161400540289</v>
+        <v>0.09478389475896247</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3181378063752947</v>
+        <v>-0.3261704178534273</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2976231958601824</v>
+        <v>-0.3006700892875983</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1983721823200964</v>
+        <v>0.2029789188458985</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.05050739996404547</v>
+        <v>-0.06658316619883727</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.09212264950951617</v>
+        <v>-0.1059324163433766</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7492741388099097</v>
+        <v>0.7701473974489347</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.09971647219334726</v>
+        <v>-0.1002796499899323</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.03470728632926545</v>
+        <v>-0.03082742804810055</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4241117119778347</v>
+        <v>0.4226881914711726</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1316830170984582</v>
+        <v>-0.1242960932921246</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.08977069898706981</v>
+        <v>-0.1090932789766638</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4848593834615664</v>
+        <v>0.4942252617125444</v>
       </c>
     </row>
     <row r="34">
